--- a/dat/Socio_Econ/01_interm_data/hpv_first_last_yearly_tests_2015_2024.xlsx
+++ b/dat/Socio_Econ/01_interm_data/hpv_first_last_yearly_tests_2015_2024.xlsx
@@ -492,7 +492,7 @@
         <v>4.051558241568337</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002504482385922913</v>
+        <v>0.0002504482385922917</v>
       </c>
       <c r="G2" t="n">
         <v>43</v>
@@ -518,7 +518,7 @@
         <v>6.317082525262907</v>
       </c>
       <c r="F3" t="n">
-        <v>1.054904058443561e-07</v>
+        <v>1.054904058443557e-07</v>
       </c>
       <c r="G3" t="n">
         <v>14</v>
@@ -544,7 +544,7 @@
         <v>6.529654290016122</v>
       </c>
       <c r="F4" t="n">
-        <v>3.553055121062317e-08</v>
+        <v>3.55305512106231e-08</v>
       </c>
       <c r="G4" t="n">
         <v>46</v>
@@ -570,7 +570,7 @@
         <v>4.910816519865327</v>
       </c>
       <c r="F5" t="n">
-        <v>7.752174145797054e-06</v>
+        <v>7.752174145797076e-06</v>
       </c>
       <c r="G5" t="n">
         <v>90.5</v>
@@ -596,7 +596,7 @@
         <v>6.68521633141416</v>
       </c>
       <c r="F6" t="n">
-        <v>7.51654671745131e-09</v>
+        <v>7.516546717451347e-09</v>
       </c>
       <c r="G6" t="n">
         <v>41</v>
@@ -622,7 +622,7 @@
         <v>7.273510185418497</v>
       </c>
       <c r="F7" t="n">
-        <v>3.230378598403406e-10</v>
+        <v>3.230378598403402e-10</v>
       </c>
       <c r="G7" t="n">
         <v>47</v>
@@ -648,7 +648,7 @@
         <v>7.674459724014645</v>
       </c>
       <c r="F8" t="n">
-        <v>2.708674984950914e-11</v>
+        <v>2.708674984950922e-11</v>
       </c>
       <c r="G8" t="n">
         <v>31</v>
@@ -674,7 +674,7 @@
         <v>9.343958135771183</v>
       </c>
       <c r="F9" t="n">
-        <v>5.48122056192161e-15</v>
+        <v>5.481220561921592e-15</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>9.280164313970554</v>
       </c>
       <c r="F10" t="n">
-        <v>2.947356006855242e-15</v>
+        <v>2.947356006855227e-15</v>
       </c>
       <c r="G10" t="n">
         <v>87.5</v>
@@ -726,7 +726,7 @@
         <v>7.637242595267585</v>
       </c>
       <c r="F11" t="n">
-        <v>7.449161761794038e-12</v>
+        <v>7.449161761794028e-12</v>
       </c>
       <c r="G11" t="n">
         <v>39</v>

--- a/dat/Socio_Econ/01_interm_data/hpv_first_last_yearly_tests_2015_2024.xlsx
+++ b/dat/Socio_Econ/01_interm_data/hpv_first_last_yearly_tests_2015_2024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -518,7 +518,7 @@
         <v>6.317082525262907</v>
       </c>
       <c r="F3" t="n">
-        <v>1.054904058443557e-07</v>
+        <v>1.054904058443559e-07</v>
       </c>
       <c r="G3" t="n">
         <v>14</v>
@@ -544,13 +544,13 @@
         <v>6.529654290016122</v>
       </c>
       <c r="F4" t="n">
-        <v>3.55305512106231e-08</v>
+        <v>3.553055121062311e-08</v>
       </c>
       <c r="G4" t="n">
         <v>46</v>
       </c>
       <c r="H4" t="n">
-        <v>3.869931537504482e-07</v>
+        <v>3.869931537504484e-07</v>
       </c>
     </row>
     <row r="5">
@@ -570,7 +570,7 @@
         <v>4.910816519865327</v>
       </c>
       <c r="F5" t="n">
-        <v>7.752174145797076e-06</v>
+        <v>7.752174145797078e-06</v>
       </c>
       <c r="G5" t="n">
         <v>90.5</v>
@@ -596,13 +596,13 @@
         <v>6.68521633141416</v>
       </c>
       <c r="F6" t="n">
-        <v>7.516546717451347e-09</v>
+        <v>7.516546717451334e-09</v>
       </c>
       <c r="G6" t="n">
         <v>41</v>
       </c>
       <c r="H6" t="n">
-        <v>6.40374217805956e-10</v>
+        <v>6.403742178059561e-10</v>
       </c>
     </row>
     <row r="7">
@@ -648,7 +648,7 @@
         <v>7.674459724014645</v>
       </c>
       <c r="F8" t="n">
-        <v>2.708674984950922e-11</v>
+        <v>2.708674984950912e-11</v>
       </c>
       <c r="G8" t="n">
         <v>31</v>
@@ -674,13 +674,13 @@
         <v>9.343958135771183</v>
       </c>
       <c r="F9" t="n">
-        <v>5.481220561921592e-15</v>
+        <v>5.481220561921612e-15</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>7.731975249736481e-15</v>
+        <v>7.731975249736486e-15</v>
       </c>
     </row>
     <row r="10">
@@ -726,7 +726,7 @@
         <v>7.637242595267585</v>
       </c>
       <c r="F11" t="n">
-        <v>7.449161761794028e-12</v>
+        <v>7.449161761794003e-12</v>
       </c>
       <c r="G11" t="n">
         <v>39</v>
